--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_18_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2997174.898930643</v>
+        <v>2988460.800612297</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555926.377790769</v>
+        <v>1555926.377790771</v>
       </c>
     </row>
     <row r="9">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>139.341443927082</v>
       </c>
       <c r="X11" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>114.1257886961396</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1584,7 +1584,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1612,10 +1612,10 @@
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>255.484931982463</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
@@ -1663,16 +1663,16 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>77.12881875749873</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1779,10 +1779,10 @@
         <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404362</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
         <v>49.37728379124554</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1821,7 +1821,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1846,22 +1846,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>275.972398744451</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>324.8205403013341</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>280.7771218515423</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,25 +2004,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
         <v>247.6326277687279</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.52279882368591</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
@@ -2149,7 +2149,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.262802037461</v>
+        <v>283.385091701589</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,25 +2241,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D22" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F22" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T22" t="n">
         <v>172.5738126575766</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X25" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448889</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695837</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2730,7 +2730,7 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
         <v>49.37728379124554</v>
@@ -2763,13 +2763,13 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T28" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988213</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
         <v>322.7559640598765</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2970,7 +2970,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,22 +3189,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124554</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3243,7 +3243,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3277,13 +3277,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>13.91332762480654</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>324.820540301335</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>280.7771218515423</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3444,7 +3444,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3508,16 +3508,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>242.4974453553201</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3562,7 +3562,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>238.451765443577</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3681,7 +3681,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3745,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>124.9963678339983</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>105.002386336094</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>137.3439741618272</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>13.77763054595408</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>129.5664687262984</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>229.7965692041383</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>87.51476388537077</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>181.1375494785988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -5068,22 +5068,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3167.077706941466</v>
       </c>
       <c r="U11" t="n">
-        <v>3104.236671416635</v>
+        <v>3167.077706941466</v>
       </c>
       <c r="V11" t="n">
-        <v>3104.236671416635</v>
+        <v>3167.077706941466</v>
       </c>
       <c r="W11" t="n">
-        <v>2798.917649094594</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X11" t="n">
-        <v>2472.901523781587</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y11" t="n">
         <v>2357.622949341042</v>
@@ -5184,16 +5184,16 @@
         <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268786</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5205,7 +5205,7 @@
         <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5217,7 +5217,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1627.383644777219</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C14" t="n">
-        <v>1305.870760784881</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D14" t="n">
-        <v>1047.805172923807</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
         <v>1047.805172923807</v>
@@ -5290,7 +5290,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5311,19 +5311,19 @@
         <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243047</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921006</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X14" t="n">
-        <v>2309.223550921006</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y14" t="n">
-        <v>1966.533851893268</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052949</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254612</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611989</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268791</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.408918177042</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
@@ -5439,10 +5439,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5481,7 +5481,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1301.367519464213</v>
+        <v>1728.817513434838</v>
       </c>
       <c r="C17" t="n">
-        <v>1022.607520732444</v>
+        <v>1407.304629442499</v>
       </c>
       <c r="D17" t="n">
-        <v>1022.607520732444</v>
+        <v>1096.488563783822</v>
       </c>
       <c r="E17" t="n">
-        <v>684.2689010822731</v>
+        <v>758.149944133651</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822731</v>
+        <v>394.6136722921168</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U17" t="n">
-        <v>2898.155827638544</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V17" t="n">
-        <v>2614.542573243047</v>
+        <v>3041.992567213672</v>
       </c>
       <c r="W17" t="n">
-        <v>2309.223550921006</v>
+        <v>2736.673544891631</v>
       </c>
       <c r="X17" t="n">
-        <v>1983.207425608</v>
+        <v>2410.657419578624</v>
       </c>
       <c r="Y17" t="n">
-        <v>1640.517726580261</v>
+        <v>2067.967720550886</v>
       </c>
     </row>
     <row r="18">
@@ -5585,28 +5585,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5688,37 +5688,37 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V19" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1329.337041025725</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="C20" t="n">
-        <v>1329.337041025725</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D20" t="n">
-        <v>1018.520975367048</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E20" t="n">
-        <v>680.1823557168772</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F20" t="n">
-        <v>316.6460838753429</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G20" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3290.734307645852</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T20" t="n">
-        <v>3132.206192978147</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U20" t="n">
-        <v>2926.125349200057</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.51209480456</v>
+        <v>2614.542573243045</v>
       </c>
       <c r="W20" t="n">
-        <v>2337.193072482519</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X20" t="n">
-        <v>2011.176947169512</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y20" t="n">
-        <v>1668.487248141774</v>
+        <v>1696.959858232656</v>
       </c>
     </row>
     <row r="21">
@@ -5822,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315248</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328078</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337106</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V22" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
         <v>1711.594658697161</v>
@@ -5977,49 +5977,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J23" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>603.8454215455611</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L23" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>1872.543307058811</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N23" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O23" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R23" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U23" t="n">
         <v>3629.895850863832</v>
@@ -6031,7 +6031,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
         <v>2372.257749805548</v>
@@ -6044,73 +6044,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L24" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O24" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q24" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R24" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S24" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U24" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y24" t="n">
         <v>1124.393991965682</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F25" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J25" t="n">
         <v>172.7749345960314</v>
@@ -6153,7 +6153,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M25" t="n">
         <v>1176.995117350172</v>
@@ -6177,7 +6177,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U25" t="n">
         <v>1711.385138644068</v>
@@ -6220,58 +6220,58 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910142</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1909.315497911347</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N26" t="n">
-        <v>2456.09431497013</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>3336.058965299585</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3977.401766380301</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
@@ -6302,7 +6302,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2517.474464532007</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>2395.987914552174</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>2293.320908087911</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>2192.857447453591</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>2093.417132903754</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>1973.163929226546</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>1874.396375392477</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>1824.520331158896</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>1916.148348858238</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>2166.640917059522</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>2529.706100760424</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>2920.36853161238</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>3308.282293570651</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>3654.117277743471</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>3933.230163429537</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>4057.345844834458</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>4014.965020540059</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>3870.728769314959</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>3696.411786832558</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>3454.758552906275</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>3247.523697648462</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>3005.556160559574</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>2825.01624260963</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>2651.673296414173</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6457,49 +6457,49 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>2826.495488321721</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6539,22 +6539,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2517.474464532007</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>2395.987914552173</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>2293.320908087911</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>2192.857447453591</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>2093.417132903754</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>1973.163929226546</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>1874.396375392477</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>1824.520331158896</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>1916.148348858238</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>2166.640917059521</v>
+        <v>423.2675027973137</v>
       </c>
       <c r="L31" t="n">
-        <v>2529.706100760424</v>
+        <v>786.3326864982164</v>
       </c>
       <c r="M31" t="n">
-        <v>2920.36853161238</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>3308.282293570651</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>3654.117277743471</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>3933.230163429537</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
-        <v>4057.345844834458</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>4014.965020540059</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>3870.728769314959</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>3696.411786832558</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>3454.758552906275</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>3247.523697648462</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>3005.556160559574</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>2825.01624260963</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>2651.673296414173</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6682,61 +6682,61 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991704</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890168</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O32" t="n">
-        <v>3182.560655874485</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.983160847721</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6776,22 +6776,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643394</v>
@@ -6855,28 +6855,28 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6888,7 +6888,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6903,7 +6903,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1301.367519464213</v>
+        <v>1728.817513434838</v>
       </c>
       <c r="C35" t="n">
-        <v>979.8546354718744</v>
+        <v>1407.3046294425</v>
       </c>
       <c r="D35" t="n">
-        <v>669.0385698131972</v>
+        <v>1096.488563783823</v>
       </c>
       <c r="E35" t="n">
-        <v>330.6999501630263</v>
+        <v>758.149944133652</v>
       </c>
       <c r="F35" t="n">
-        <v>316.6460838753429</v>
+        <v>394.6136722921177</v>
       </c>
       <c r="G35" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>2898.155827638544</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>2614.542573243047</v>
+        <v>3041.992567213672</v>
       </c>
       <c r="W35" t="n">
-        <v>2309.223550921006</v>
+        <v>2736.673544891632</v>
       </c>
       <c r="X35" t="n">
-        <v>1983.207425608</v>
+        <v>2410.657419578625</v>
       </c>
       <c r="Y35" t="n">
-        <v>1640.517726580261</v>
+        <v>2067.967720550887</v>
       </c>
     </row>
     <row r="36">
@@ -7007,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7092,16 +7092,16 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M37" t="n">
         <v>1162.360316885667</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1584.98077385971</v>
+        <v>1344.120404724782</v>
       </c>
       <c r="C38" t="n">
-        <v>1263.467889867371</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D38" t="n">
-        <v>1018.520975367048</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E38" t="n">
-        <v>680.1823557168772</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F38" t="n">
-        <v>316.6460838753429</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G38" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T38" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U38" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V38" t="n">
-        <v>2898.155827638544</v>
+        <v>2657.295458503617</v>
       </c>
       <c r="W38" t="n">
-        <v>2592.836805316504</v>
+        <v>2351.976436181576</v>
       </c>
       <c r="X38" t="n">
-        <v>2266.820680003497</v>
+        <v>2025.960310868569</v>
       </c>
       <c r="Y38" t="n">
-        <v>1924.130980975758</v>
+        <v>1683.270611840831</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1785.73444130672</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C40" t="n">
-        <v>1664.247891326886</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D40" t="n">
-        <v>1561.580884862624</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E40" t="n">
-        <v>1461.117424228304</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F40" t="n">
-        <v>1361.677109678467</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G40" t="n">
-        <v>1241.42390600126</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H40" t="n">
-        <v>1142.656352167191</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I40" t="n">
-        <v>1092.780307933609</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>1184.408325632951</v>
+        <v>158.1401341315258</v>
       </c>
       <c r="K40" t="n">
-        <v>1434.900893834234</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L40" t="n">
-        <v>1797.966077535137</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M40" t="n">
-        <v>2188.628508387093</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N40" t="n">
-        <v>2576.542270345364</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O40" t="n">
-        <v>2922.377254518184</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P40" t="n">
-        <v>3201.49014020425</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R40" t="n">
-        <v>3283.224997314772</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S40" t="n">
-        <v>3138.988746089672</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T40" t="n">
-        <v>2964.671763607271</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U40" t="n">
-        <v>2723.018529680988</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V40" t="n">
-        <v>2515.783674423174</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W40" t="n">
-        <v>2273.816137334287</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X40" t="n">
-        <v>2093.276219384343</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y40" t="n">
-        <v>1919.933273188886</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1285.591601078695</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C41" t="n">
-        <v>916.6290841382831</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D41" t="n">
-        <v>558.3633855315327</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="E41" t="n">
-        <v>172.5751329332884</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>172.5751329332884</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>172.5751329332884</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7429,7 +7429,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V41" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W41" t="n">
-        <v>2435.796531379708</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X41" t="n">
-        <v>2062.330773118628</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y41" t="n">
-        <v>1672.191441142817</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="42">
@@ -7481,22 +7481,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>825.3518203322459</v>
+        <v>470.2719172712679</v>
       </c>
       <c r="C43" t="n">
-        <v>825.3518203322459</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2351809199101</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E43" t="n">
-        <v>527.322087337517</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1631.86140814158</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1342.758541267224</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V43" t="n">
-        <v>1342.758541267224</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W43" t="n">
-        <v>1053.341371230263</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="X43" t="n">
-        <v>825.3518203322459</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="Y43" t="n">
-        <v>825.3518203322459</v>
+        <v>651.9203821015076</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1363.124011696102</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C44" t="n">
-        <v>994.1614947556902</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D44" t="n">
-        <v>994.1614947556902</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>608.3732421574459</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>197.3873373678384</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
-        <v>197.3873373678384</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810568</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7678,22 +7678,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2866.09759726723</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W44" t="n">
-        <v>2513.328941997115</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X44" t="n">
-        <v>2139.863183736035</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y44" t="n">
-        <v>1749.723851760224</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>785.680167749271</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>616.7439848213642</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>616.7439848213642</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>468.830891238971</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1705.527932658019</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V46" t="n">
-        <v>1705.527932658019</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>1416.110762621058</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>1188.121211723041</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>967.3286325795108</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8218,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>203.6038539184178</v>
+        <v>203.6038539184175</v>
       </c>
       <c r="L5" t="n">
-        <v>215.3140777429004</v>
+        <v>215.3140777428999</v>
       </c>
       <c r="M5" t="n">
-        <v>207.5890673186454</v>
+        <v>207.5890673186449</v>
       </c>
       <c r="N5" t="n">
-        <v>206.2876629516775</v>
+        <v>206.287662951677</v>
       </c>
       <c r="O5" t="n">
-        <v>208.2615513518527</v>
+        <v>208.2615513518522</v>
       </c>
       <c r="P5" t="n">
-        <v>212.5959115946522</v>
+        <v>212.5959115946518</v>
       </c>
       <c r="Q5" t="n">
-        <v>208.3100158302401</v>
+        <v>208.3100158302398</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>120.2861621969143</v>
+        <v>120.2861621969141</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6439426936443</v>
+        <v>126.643942693644</v>
       </c>
       <c r="L6" t="n">
-        <v>123.4979641735841</v>
+        <v>123.4979641735838</v>
       </c>
       <c r="M6" t="n">
-        <v>124.5639070747226</v>
+        <v>124.5639070747222</v>
       </c>
       <c r="N6" t="n">
-        <v>113.3065562599338</v>
+        <v>113.3065562599333</v>
       </c>
       <c r="O6" t="n">
-        <v>126.0976003197213</v>
+        <v>126.097600319721</v>
       </c>
       <c r="P6" t="n">
-        <v>120.7327909580802</v>
+        <v>120.7327909580799</v>
       </c>
       <c r="Q6" t="n">
-        <v>131.130104157621</v>
+        <v>131.1301041576208</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>126.2415162733973</v>
+        <v>126.2415162733971</v>
       </c>
       <c r="M7" t="n">
-        <v>129.8127835797927</v>
+        <v>129.8127835797925</v>
       </c>
       <c r="N7" t="n">
-        <v>118.7892308776101</v>
+        <v>118.7892308776099</v>
       </c>
       <c r="O7" t="n">
-        <v>130.2393529435933</v>
+        <v>130.2393529435931</v>
       </c>
       <c r="P7" t="n">
-        <v>130.6967822841778</v>
+        <v>130.6967822841776</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>287.0017854473905</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>277.2206841544156</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>19.40311602546529</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>21.13839585591369</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,19 +10120,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>274.8351763665437</v>
       </c>
       <c r="O29" t="n">
-        <v>21.1383958559137</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550059</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>108.7354935515734</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>162.9243881717385</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>225.1370133413214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23500,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>52.22297301962743</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>225.1370133413217</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>42.32535640796397</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>39.12604873352683</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>27.68982634589739</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>55.87771033587205</v>
       </c>
     </row>
     <row r="21">
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>345.9875814983124</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>39.12604873352592</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>65.21045964677029</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>42.32535640796536</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>256.9340022382635</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>189.6053780512265</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>29.90284693680061</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>205.7713187302151</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>165.041295661022</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>97.95568926599657</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>57.90628413756048</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>105.074288727014</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>786139.9470413243</v>
+        <v>786139.9470413242</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>660830.3497765883</v>
+        <v>660830.3497765881</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660830.3497765881</v>
+        <v>660830.349776588</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660830.3497765881</v>
+        <v>660830.349776588</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>734810.6665420255</v>
+        <v>734810.6665420256</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734810.6665420255</v>
+        <v>734810.6665420256</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660830.3497765881</v>
+        <v>660830.349776588</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660830.3497765881</v>
+        <v>660830.349776588</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>590674.059620787</v>
+        <v>590674.0596207872</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>590674.0596207869</v>
+        <v>590674.059620787</v>
       </c>
     </row>
   </sheetData>
@@ -26319,40 +26319,40 @@
         <v>737357.9896096137</v>
       </c>
       <c r="D2" t="n">
-        <v>737416.3214963148</v>
+        <v>737416.3214963147</v>
       </c>
       <c r="E2" t="n">
         <v>688077.9089008584</v>
       </c>
       <c r="F2" t="n">
+        <v>688077.9089008585</v>
+      </c>
+      <c r="G2" t="n">
+        <v>688077.908900859</v>
+      </c>
+      <c r="H2" t="n">
+        <v>688077.9089008586</v>
+      </c>
+      <c r="I2" t="n">
+        <v>738937.5928778552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>738937.5928778548</v>
+      </c>
+      <c r="K2" t="n">
+        <v>738937.5928778548</v>
+      </c>
+      <c r="L2" t="n">
+        <v>738937.5928778552</v>
+      </c>
+      <c r="M2" t="n">
+        <v>688077.9089008583</v>
+      </c>
+      <c r="N2" t="n">
         <v>688077.9089008587</v>
       </c>
-      <c r="G2" t="n">
-        <v>688077.9089008587</v>
-      </c>
-      <c r="H2" t="n">
-        <v>688077.9089008584</v>
-      </c>
-      <c r="I2" t="n">
-        <v>738937.5928778553</v>
-      </c>
-      <c r="J2" t="n">
-        <v>738937.5928778555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>738937.5928778549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>738937.5928778553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>688077.9089008584</v>
-      </c>
-      <c r="N2" t="n">
-        <v>688077.908900859</v>
-      </c>
       <c r="O2" t="n">
-        <v>613794.7781476576</v>
+        <v>613794.7781476573</v>
       </c>
       <c r="P2" t="n">
         <v>613794.7781476576</v>
@@ -26368,10 +26368,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>29356.68375669949</v>
+        <v>29356.68375670016</v>
       </c>
       <c r="D3" t="n">
-        <v>173459.1820050298</v>
+        <v>173459.1820050291</v>
       </c>
       <c r="E3" t="n">
         <v>972725.1766621993</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902286</v>
+        <v>48646.25967902302</v>
       </c>
       <c r="J3" t="n">
         <v>37580.10929487406</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>161600.4331051144</v>
+        <v>161600.4331051143</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>441649.2499958205</v>
       </c>
       <c r="C4" t="n">
-        <v>432293.8753204606</v>
+        <v>432293.8753204604</v>
       </c>
       <c r="D4" t="n">
         <v>374928.5597385824</v>
       </c>
       <c r="E4" t="n">
-        <v>58825.50137861085</v>
+        <v>58825.50137861087</v>
       </c>
       <c r="F4" t="n">
-        <v>58825.50137861085</v>
+        <v>58825.50137861083</v>
       </c>
       <c r="G4" t="n">
-        <v>58825.50137861085</v>
+        <v>58825.50137861086</v>
       </c>
       <c r="H4" t="n">
-        <v>58825.50137861082</v>
+        <v>58825.50137861086</v>
       </c>
       <c r="I4" t="n">
-        <v>84858.15940173084</v>
+        <v>84858.15940173095</v>
       </c>
       <c r="J4" t="n">
         <v>84858.15940173087</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173084</v>
+        <v>84858.1594017309</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173087</v>
+        <v>84858.15940173091</v>
       </c>
       <c r="M4" t="n">
-        <v>58825.50137861083</v>
+        <v>58825.50137861085</v>
       </c>
       <c r="N4" t="n">
-        <v>58825.50137861082</v>
+        <v>58825.50137861085</v>
       </c>
       <c r="O4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712845</v>
       </c>
       <c r="P4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712846</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>34330.40507389183</v>
+        <v>34330.40507389184</v>
       </c>
       <c r="D5" t="n">
         <v>38745.80483114667</v>
@@ -26484,10 +26484,10 @@
         <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
@@ -26496,16 +26496,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>262071.8548495142</v>
+        <v>262027.7190708331</v>
       </c>
       <c r="C6" t="n">
-        <v>241377.0254585618</v>
+        <v>241333.147589999</v>
       </c>
       <c r="D6" t="n">
-        <v>150282.774921556</v>
+        <v>150240.5173831805</v>
       </c>
       <c r="E6" t="n">
-        <v>-421728.2624617335</v>
+        <v>-423141.0314610946</v>
       </c>
       <c r="F6" t="n">
-        <v>550996.9142004661</v>
+        <v>549584.1452011049</v>
       </c>
       <c r="G6" t="n">
-        <v>550996.9142004661</v>
+        <v>549584.1452011056</v>
       </c>
       <c r="H6" t="n">
-        <v>550996.9142004658</v>
+        <v>549584.145201105</v>
       </c>
       <c r="I6" t="n">
-        <v>516055.2321222955</v>
+        <v>516055.232122295</v>
       </c>
       <c r="J6" t="n">
-        <v>527121.3825064446</v>
+        <v>527121.3825064439</v>
       </c>
       <c r="K6" t="n">
-        <v>564701.491801318</v>
+        <v>564701.4918013179</v>
       </c>
       <c r="L6" t="n">
         <v>564701.4918013182</v>
       </c>
       <c r="M6" t="n">
-        <v>389396.4810953514</v>
+        <v>387983.7120959904</v>
       </c>
       <c r="N6" t="n">
-        <v>550996.9142004664</v>
+        <v>549584.1452011052</v>
       </c>
       <c r="O6" t="n">
-        <v>527888.202589136</v>
+        <v>524412.0132910744</v>
       </c>
       <c r="P6" t="n">
-        <v>527888.202589136</v>
+        <v>524412.0132910748</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="J2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="F2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>32.23876485742343</v>
+        <v>32.23876485742417</v>
       </c>
       <c r="D3" t="n">
         <v>234.7800381259942</v>
@@ -26804,34 +26804,34 @@
         <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="I4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="J4" t="n">
         <v>1014.336461208614</v>
       </c>
-      <c r="J4" t="n">
-        <v>1014.336461208615</v>
-      </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26916,28 +26916,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859258</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>32.23876485742343</v>
+        <v>32.23876485742417</v>
       </c>
       <c r="D3" t="n">
-        <v>202.5412732685708</v>
+        <v>202.54127326857</v>
       </c>
       <c r="E3" t="n">
         <v>854.9966624673041</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063217</v>
+        <v>182.9350058063222</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.466449595971</v>
+        <v>648.4664495959707</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27636,10 +27636,10 @@
         <v>338.1475046259336</v>
       </c>
       <c r="I5" t="n">
-        <v>205.4793670290358</v>
+        <v>205.4793670290357</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9493903844909415</v>
+        <v>0.9493903844906875</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.727938793511</v>
+        <v>141.7279387935108</v>
       </c>
       <c r="S5" t="n">
-        <v>206.0667395191558</v>
+        <v>206.0667395191557</v>
       </c>
       <c r="T5" t="n">
         <v>222.5285121041781</v>
@@ -27712,10 +27712,10 @@
         <v>137.2741734048381</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5657295174772</v>
+        <v>111.5657295174771</v>
       </c>
       <c r="I6" t="n">
-        <v>87.0091394162191</v>
+        <v>87.00913941621904</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.85243834772156</v>
+        <v>95.85243834772146</v>
       </c>
       <c r="S6" t="n">
         <v>170.3951412059964</v>
@@ -27794,13 +27794,13 @@
         <v>161.7102952610369</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7021825641705</v>
+        <v>153.7021825641704</v>
       </c>
       <c r="J7" t="n">
-        <v>89.24900184952224</v>
+        <v>89.24900184952216</v>
       </c>
       <c r="K7" t="n">
-        <v>15.51520633608168</v>
+        <v>15.51520633608153</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.29398975822345</v>
+        <v>81.29398975822333</v>
       </c>
       <c r="R7" t="n">
-        <v>174.6794089020086</v>
+        <v>174.6794089020085</v>
       </c>
       <c r="S7" t="n">
         <v>223.0034552135021</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859165</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859183</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29532,7 +29532,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859284</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859176</v>
+        <v>46.97513661859283</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1296030748037122</v>
+        <v>0.1296030748037152</v>
       </c>
       <c r="H5" t="n">
-        <v>1.327297489833517</v>
+        <v>1.327297489833548</v>
       </c>
       <c r="I5" t="n">
-        <v>4.996522541370118</v>
+        <v>4.996522541370234</v>
       </c>
       <c r="J5" t="n">
-        <v>10.99989897012158</v>
+        <v>10.99989897012183</v>
       </c>
       <c r="K5" t="n">
-        <v>16.48599712656272</v>
+        <v>16.4859971265631</v>
       </c>
       <c r="L5" t="n">
-        <v>20.45233722708683</v>
+        <v>20.4523372270873</v>
       </c>
       <c r="M5" t="n">
-        <v>22.75716590862734</v>
+        <v>22.75716590862787</v>
       </c>
       <c r="N5" t="n">
-        <v>23.12540064491339</v>
+        <v>23.12540064491392</v>
       </c>
       <c r="O5" t="n">
-        <v>21.83666006983398</v>
+        <v>21.83666006983448</v>
       </c>
       <c r="P5" t="n">
-        <v>18.63708416061733</v>
+        <v>18.63708416061776</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.99567404420938</v>
+        <v>13.99567404420971</v>
       </c>
       <c r="R5" t="n">
-        <v>8.141179147638692</v>
+        <v>8.14117914763888</v>
       </c>
       <c r="S5" t="n">
-        <v>2.953330067089594</v>
+        <v>2.953330067089663</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5673374599532504</v>
+        <v>0.5673374599532635</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01036824598429697</v>
+        <v>0.01036824598429721</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06934375837257115</v>
+        <v>0.06934375837257276</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6697147190193057</v>
+        <v>0.6697147190193211</v>
       </c>
       <c r="I6" t="n">
-        <v>2.387493435195981</v>
+        <v>2.387493435196036</v>
       </c>
       <c r="J6" t="n">
-        <v>6.551464469752435</v>
+        <v>6.551464469752587</v>
       </c>
       <c r="K6" t="n">
-        <v>11.1974962807147</v>
+        <v>11.19749628071496</v>
       </c>
       <c r="L6" t="n">
-        <v>15.05641560629006</v>
+        <v>15.05641560629041</v>
       </c>
       <c r="M6" t="n">
-        <v>17.57012684729576</v>
+        <v>17.57012684729617</v>
       </c>
       <c r="N6" t="n">
-        <v>18.03515582339955</v>
+        <v>18.03515582339996</v>
       </c>
       <c r="O6" t="n">
-        <v>16.4986441247231</v>
+        <v>16.49864412472348</v>
       </c>
       <c r="P6" t="n">
-        <v>13.24161645625001</v>
+        <v>13.24161645625032</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.851669928400486</v>
+        <v>8.851669928400691</v>
       </c>
       <c r="R6" t="n">
-        <v>4.305395804921568</v>
+        <v>4.305395804921668</v>
       </c>
       <c r="S6" t="n">
-        <v>1.288029897841397</v>
+        <v>1.288029897841427</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2795040085280389</v>
+        <v>0.2795040085280453</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004562089366616525</v>
+        <v>0.00456208936661663</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05813547761174716</v>
+        <v>0.0581354776117485</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5168772464026251</v>
+        <v>0.5168772464026371</v>
       </c>
       <c r="I7" t="n">
-        <v>1.748292363087815</v>
+        <v>1.748292363087856</v>
       </c>
       <c r="J7" t="n">
-        <v>4.110178267150523</v>
+        <v>4.110178267150618</v>
       </c>
       <c r="K7" t="n">
-        <v>6.754285489801168</v>
+        <v>6.754285489801324</v>
       </c>
       <c r="L7" t="n">
-        <v>8.643160007841029</v>
+        <v>8.643160007841228</v>
       </c>
       <c r="M7" t="n">
-        <v>9.113000367812328</v>
+        <v>9.113000367812539</v>
       </c>
       <c r="N7" t="n">
-        <v>8.896313587623096</v>
+        <v>8.896313587623302</v>
       </c>
       <c r="O7" t="n">
-        <v>8.217185508249502</v>
+        <v>8.217185508249692</v>
       </c>
       <c r="P7" t="n">
-        <v>7.031221764969853</v>
+        <v>7.031221764970016</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.868053493470938</v>
+        <v>4.86805349347105</v>
       </c>
       <c r="R7" t="n">
-        <v>2.613982475160921</v>
+        <v>2.613982475160982</v>
       </c>
       <c r="S7" t="n">
-        <v>1.013142823470175</v>
+        <v>1.013142823470198</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2483970407047378</v>
+        <v>0.2483970407047435</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003171026051549849</v>
+        <v>0.003171026051549922</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35816,7 +35816,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36053,13 +36053,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412314</v>
       </c>
       <c r="P19" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3693751564862</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165803</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36296,7 +36296,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3693751564862</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>825.9229012776173</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737872</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36524,7 +36524,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N25" t="n">
         <v>391.8320827861326</v>
@@ -36533,7 +36533,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36609,16 +36609,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>418.1651022448372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>80.75159439813847</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>827.137011779455</v>
       </c>
       <c r="O29" t="n">
-        <v>529.1913967441328</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37007,7 +37007,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237184</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>507.4974797709453</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37244,7 +37244,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637032</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165799</v>
+        <v>92.55355323165902</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.191286555402</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
